--- a/data_craw/quarter/income_statement_quarter/shb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/shb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79767000000</v>
+        <v>55911000000</v>
       </c>
       <c r="C4" t="n">
-        <v>168603000000</v>
+        <v>189616000000</v>
       </c>
       <c r="D4" t="n">
-        <v>12973000000</v>
+        <v>110082000000</v>
       </c>
       <c r="E4" t="n">
-        <v>30351000000</v>
+        <v>114150000000</v>
       </c>
       <c r="F4" t="n">
-        <v>55911000000</v>
+        <v>40616000000</v>
       </c>
       <c r="G4" t="n">
-        <v>189616000000</v>
+        <v>818907000000</v>
       </c>
       <c r="H4" t="n">
-        <v>110082000000</v>
+        <v>252310000000</v>
       </c>
       <c r="I4" t="n">
-        <v>114150000000</v>
+        <v>272699000000</v>
       </c>
       <c r="J4" t="n">
-        <v>40616000000</v>
+        <v>156606000000</v>
       </c>
       <c r="K4" t="n">
-        <v>818907000000</v>
+        <v>134038000000</v>
       </c>
       <c r="L4" t="n">
-        <v>252310000000</v>
+        <v>85883000000</v>
       </c>
       <c r="M4" t="n">
-        <v>272699000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>156606000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>134038000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>85883000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>100086000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69320000000</v>
+        <v>-15893000000</v>
       </c>
       <c r="C5" t="n">
-        <v>24529000000</v>
+        <v>18147000000</v>
       </c>
       <c r="D5" t="n">
-        <v>7063000000</v>
+        <v>15289000000</v>
       </c>
       <c r="E5" t="n">
-        <v>24112000000</v>
+        <v>28110000000</v>
       </c>
       <c r="F5" t="n">
-        <v>-15893000000</v>
+        <v>3532000000</v>
       </c>
       <c r="G5" t="n">
-        <v>18147000000</v>
+        <v>15478000000</v>
       </c>
       <c r="H5" t="n">
-        <v>15289000000</v>
+        <v>43071000000</v>
       </c>
       <c r="I5" t="n">
-        <v>28110000000</v>
+        <v>26644000000</v>
       </c>
       <c r="J5" t="n">
-        <v>3532000000</v>
+        <v>25889000000</v>
       </c>
       <c r="K5" t="n">
-        <v>15478000000</v>
+        <v>24533000000</v>
       </c>
       <c r="L5" t="n">
-        <v>43071000000</v>
+        <v>15931000000</v>
       </c>
       <c r="M5" t="n">
-        <v>26644000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>25889000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>24533000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>15931000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>5602000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559648000000</v>
+        <v>757336000000</v>
       </c>
       <c r="C7" t="n">
-        <v>650689000000</v>
+        <v>642423000000</v>
       </c>
       <c r="D7" t="n">
-        <v>614374000000</v>
+        <v>1330095000000</v>
       </c>
       <c r="E7" t="n">
-        <v>743189000000</v>
+        <v>1145341000000</v>
       </c>
       <c r="F7" t="n">
-        <v>757336000000</v>
+        <v>1494652000000</v>
       </c>
       <c r="G7" t="n">
-        <v>642423000000</v>
+        <v>938705000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1330095000000</v>
+        <v>2581681000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1145341000000</v>
+        <v>2096051000000</v>
       </c>
       <c r="J7" t="n">
-        <v>1494652000000</v>
+        <v>2590623000000</v>
       </c>
       <c r="K7" t="n">
-        <v>938705000000</v>
+        <v>478547000000</v>
       </c>
       <c r="L7" t="n">
-        <v>2581681000000</v>
+        <v>2881168000000</v>
       </c>
       <c r="M7" t="n">
-        <v>2096051000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2590623000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>478547000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2881168000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>2060208000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
